--- a/biology/Botanique/Polystachya_moniquetiana/Polystachya_moniquetiana.xlsx
+++ b/biology/Botanique/Polystachya_moniquetiana/Polystachya_moniquetiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya moniquetiana Stévart &amp; Geerinck est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, observée en Guinée équatoriale, au Cameroun, à Sao Tomé-et-Principe et au Gabon. Sur la liste rouge de l'UICN, elle apparaît comme une plante menacée (EN)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya moniquetiana Stévart &amp; Geerinck est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, observée en Guinée équatoriale, au Cameroun, à Sao Tomé-et-Principe et au Gabon. Sur la liste rouge de l'UICN, elle apparaît comme une plante menacée (EN).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique moniquetiana rend hommage à un collaborateur du laboratoire de botanique à l'Université libre de Bruxelles, Jean-Claude Moniquet.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya moniquetiana Stévart &amp; Geerinck est proche de Polystachya polychaete Kraenzl., mais s'en différencie par son labelle et la taille de la plante[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya moniquetiana Stévart &amp; Geerinck est proche de Polystachya polychaete Kraenzl., mais s'en différencie par son labelle et la taille de la plante.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype a été collecté en 2001 à Engong dans le parc national de Monte Alén (Guinée équatoriale). Les spécimens du Cameroun, prélevés en 2004, proviennent d'Akom II, dans la région du Sud[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a été collecté en 2001 à Engong dans le parc national de Monte Alén (Guinée équatoriale). Les spécimens du Cameroun, prélevés en 2004, proviennent d'Akom II, dans la région du Sud
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante épiphyte présente dans les forêts de basse altitude, entre 650 et 850 m[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante épiphyte présente dans les forêts de basse altitude, entre 650 et 850 m.
 </t>
         </is>
       </c>
